--- a/input/result_data.xlsx
+++ b/input/result_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Projects\21_regulation-CO-PO-Automation\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Projects\21_regulation-CO-PO-Automation\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818B51B-3F1B-4461-B45D-1D2E68DF9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A6BC15-9D33-48F8-97C9-0BAFE988BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
   <si>
     <t>CLAT-&gt;</t>
   </si>
@@ -473,13 +473,28 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO3</t>
+  </si>
+  <si>
+    <t>CO4</t>
+  </si>
+  <si>
+    <t>CO5</t>
+  </si>
+  <si>
+    <t>CO6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +531,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -556,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -624,12 +645,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,30 +738,54 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:AY83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:S1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,32 +1103,68 @@
     <col min="4" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
@@ -1059,36 +1188,108 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
       <c r="S2" s="23"/>
+      <c r="T2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="20" t="s">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -1137,31 +1338,163 @@
       <c r="S4" s="3">
         <v>5</v>
       </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="26"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1219,8 +1552,104 @@
       <c r="S6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -1273,8 +1702,95 @@
         <v>3.5</v>
       </c>
       <c r="S7" s="4"/>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -1327,8 +1843,94 @@
         <v>4</v>
       </c>
       <c r="S8" s="4"/>
+      <c r="T8" s="12">
+        <v>1</v>
+      </c>
+      <c r="U8" s="12">
+        <v>1</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1</v>
+      </c>
+      <c r="X8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="12">
+        <v>6</v>
+      </c>
+      <c r="AX8" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -1381,8 +1983,94 @@
         <v>4.5</v>
       </c>
       <c r="S9" s="4"/>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
+      <c r="U9" s="12">
+        <v>1</v>
+      </c>
+      <c r="V9" s="12">
+        <v>1</v>
+      </c>
+      <c r="W9" s="12">
+        <v>1</v>
+      </c>
+      <c r="X9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -1435,8 +2123,94 @@
         <v>4</v>
       </c>
       <c r="S10" s="4"/>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <v>1</v>
+      </c>
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -1489,8 +2263,94 @@
         <v>3</v>
       </c>
       <c r="S11" s="4"/>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -1543,8 +2403,94 @@
         <v>3</v>
       </c>
       <c r="S12" s="4"/>
+      <c r="T12" s="12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1</v>
+      </c>
+      <c r="V12" s="12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -1598,8 +2544,96 @@
         <v>3.5</v>
       </c>
       <c r="S13" s="4"/>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX13" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -1653,8 +2687,96 @@
         <v>5</v>
       </c>
       <c r="S14" s="4"/>
+      <c r="T14" s="12">
+        <v>1</v>
+      </c>
+      <c r="U14" s="12">
+        <v>1</v>
+      </c>
+      <c r="V14" s="12">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1</v>
+      </c>
+      <c r="X14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX14" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -1707,8 +2829,94 @@
       <c r="S15" s="12">
         <v>3.5</v>
       </c>
+      <c r="T15" s="12">
+        <v>1</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY15" s="12">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -1761,8 +2969,94 @@
       <c r="S16" s="12">
         <v>5</v>
       </c>
+      <c r="T16" s="12">
+        <v>1</v>
+      </c>
+      <c r="U16" s="12">
+        <v>1</v>
+      </c>
+      <c r="V16" s="12">
+        <v>1</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1</v>
+      </c>
+      <c r="X16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>5</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -1815,8 +3109,94 @@
       <c r="S17" s="12">
         <v>4</v>
       </c>
+      <c r="T17" s="12">
+        <v>1</v>
+      </c>
+      <c r="U17" s="12">
+        <v>1</v>
+      </c>
+      <c r="V17" s="12">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12">
+        <v>1</v>
+      </c>
+      <c r="X17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -1869,8 +3249,94 @@
       <c r="S18" s="12">
         <v>3.5</v>
       </c>
+      <c r="T18" s="12">
+        <v>1</v>
+      </c>
+      <c r="U18" s="12">
+        <v>1</v>
+      </c>
+      <c r="V18" s="12">
+        <v>1</v>
+      </c>
+      <c r="W18" s="12">
+        <v>1</v>
+      </c>
+      <c r="X18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -1923,8 +3389,94 @@
       <c r="S19" s="12">
         <v>4</v>
       </c>
+      <c r="T19" s="12">
+        <v>1</v>
+      </c>
+      <c r="U19" s="12">
+        <v>1</v>
+      </c>
+      <c r="V19" s="12">
+        <v>1</v>
+      </c>
+      <c r="W19" s="12">
+        <v>1</v>
+      </c>
+      <c r="X19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI19" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY19" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -1977,8 +3529,94 @@
       <c r="S20" s="12">
         <v>3</v>
       </c>
+      <c r="T20" s="12">
+        <v>1</v>
+      </c>
+      <c r="U20" s="12">
+        <v>1</v>
+      </c>
+      <c r="V20" s="12">
+        <v>1</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1</v>
+      </c>
+      <c r="X20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY20" s="12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -2031,8 +3669,94 @@
       <c r="S21" s="12">
         <v>4</v>
       </c>
+      <c r="T21" s="12">
+        <v>1</v>
+      </c>
+      <c r="U21" s="12">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12">
+        <v>1</v>
+      </c>
+      <c r="W21" s="12">
+        <v>1</v>
+      </c>
+      <c r="X21" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY21" s="12">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -2085,8 +3809,94 @@
       <c r="S22" s="12">
         <v>3.5</v>
       </c>
+      <c r="T22" s="12">
+        <v>1</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="12">
+        <v>8</v>
+      </c>
+      <c r="AY22" s="12">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -2140,8 +3950,96 @@
         <v>4</v>
       </c>
       <c r="S23" s="4"/>
+      <c r="T23" s="12">
+        <v>1</v>
+      </c>
+      <c r="U23" s="12">
+        <v>1</v>
+      </c>
+      <c r="V23" s="12">
+        <v>1</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1</v>
+      </c>
+      <c r="X23" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX23" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -2195,8 +4093,96 @@
         <v>4</v>
       </c>
       <c r="S24" s="4"/>
+      <c r="T24" s="12">
+        <v>1</v>
+      </c>
+      <c r="U24" s="12">
+        <v>1</v>
+      </c>
+      <c r="V24" s="12">
+        <v>1</v>
+      </c>
+      <c r="W24" s="12">
+        <v>1</v>
+      </c>
+      <c r="X24" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -2250,8 +4236,96 @@
         <v>4</v>
       </c>
       <c r="S25" s="4"/>
+      <c r="T25" s="12">
+        <v>1</v>
+      </c>
+      <c r="U25" s="12">
+        <v>1</v>
+      </c>
+      <c r="V25" s="12">
+        <v>1</v>
+      </c>
+      <c r="W25" s="12">
+        <v>1</v>
+      </c>
+      <c r="X25" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -2305,8 +4379,96 @@
         <v>4.5</v>
       </c>
       <c r="S26" s="4"/>
+      <c r="T26" s="12">
+        <v>1</v>
+      </c>
+      <c r="U26" s="12">
+        <v>1</v>
+      </c>
+      <c r="V26" s="12">
+        <v>1</v>
+      </c>
+      <c r="W26" s="12">
+        <v>1</v>
+      </c>
+      <c r="X26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -2360,8 +4522,96 @@
         <v>3</v>
       </c>
       <c r="S27" s="4"/>
+      <c r="T27" s="12">
+        <v>1</v>
+      </c>
+      <c r="U27" s="12">
+        <v>1</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>0</v>
+      </c>
+      <c r="X27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX27" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -2415,8 +4665,96 @@
         <v>3.5</v>
       </c>
       <c r="S28" s="4"/>
+      <c r="T28" s="12">
+        <v>1</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0</v>
+      </c>
+      <c r="X28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX28" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -2470,8 +4808,96 @@
         <v>4</v>
       </c>
       <c r="S29" s="4"/>
+      <c r="T29" s="12">
+        <v>1</v>
+      </c>
+      <c r="U29" s="12">
+        <v>1</v>
+      </c>
+      <c r="V29" s="12">
+        <v>1</v>
+      </c>
+      <c r="W29" s="12">
+        <v>1</v>
+      </c>
+      <c r="X29" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX29" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -2525,8 +4951,96 @@
         <v>4</v>
       </c>
       <c r="S30" s="4"/>
+      <c r="T30" s="12">
+        <v>1</v>
+      </c>
+      <c r="U30" s="12">
+        <v>1</v>
+      </c>
+      <c r="V30" s="12">
+        <v>1</v>
+      </c>
+      <c r="W30" s="12">
+        <v>1</v>
+      </c>
+      <c r="X30" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH30" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX30" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -2580,8 +5094,96 @@
         <v>5</v>
       </c>
       <c r="S31" s="4"/>
+      <c r="T31" s="12">
+        <v>1</v>
+      </c>
+      <c r="U31" s="12">
+        <v>1</v>
+      </c>
+      <c r="V31" s="12">
+        <v>1</v>
+      </c>
+      <c r="W31" s="12">
+        <v>1</v>
+      </c>
+      <c r="X31" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX31" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -2635,8 +5237,96 @@
         <v>2</v>
       </c>
       <c r="S32" s="4"/>
+      <c r="T32" s="12">
+        <v>1</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <v>1</v>
+      </c>
+      <c r="X32" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="4"/>
+      <c r="AW32" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX32" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -2690,8 +5380,96 @@
         <v>5</v>
       </c>
       <c r="S33" s="4"/>
+      <c r="T33" s="12">
+        <v>1</v>
+      </c>
+      <c r="U33" s="12">
+        <v>1</v>
+      </c>
+      <c r="V33" s="12">
+        <v>1</v>
+      </c>
+      <c r="W33" s="12">
+        <v>1</v>
+      </c>
+      <c r="X33" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH33" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX33" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -2745,8 +5523,96 @@
         <v>3.5</v>
       </c>
       <c r="S34" s="4"/>
+      <c r="T34" s="12">
+        <v>1</v>
+      </c>
+      <c r="U34" s="12">
+        <v>1</v>
+      </c>
+      <c r="V34" s="12">
+        <v>1</v>
+      </c>
+      <c r="W34" s="12">
+        <v>1</v>
+      </c>
+      <c r="X34" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX34" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -2800,8 +5666,96 @@
         <v>4</v>
       </c>
       <c r="S35" s="4"/>
+      <c r="T35" s="12">
+        <v>1</v>
+      </c>
+      <c r="U35" s="12">
+        <v>1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>1</v>
+      </c>
+      <c r="W35" s="12">
+        <v>1</v>
+      </c>
+      <c r="X35" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX35" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -2855,8 +5809,96 @@
         <v>4</v>
       </c>
       <c r="S36" s="4"/>
+      <c r="T36" s="12">
+        <v>1</v>
+      </c>
+      <c r="U36" s="12">
+        <v>1</v>
+      </c>
+      <c r="V36" s="12">
+        <v>1</v>
+      </c>
+      <c r="W36" s="12">
+        <v>1</v>
+      </c>
+      <c r="X36" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX36" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>31</v>
       </c>
@@ -2910,8 +5952,96 @@
         <v>4</v>
       </c>
       <c r="S37" s="4"/>
+      <c r="T37" s="12">
+        <v>1</v>
+      </c>
+      <c r="U37" s="12">
+        <v>1</v>
+      </c>
+      <c r="V37" s="12">
+        <v>1</v>
+      </c>
+      <c r="W37" s="12">
+        <v>1</v>
+      </c>
+      <c r="X37" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -2965,8 +6095,96 @@
         <v>4</v>
       </c>
       <c r="S38" s="4"/>
+      <c r="T38" s="12">
+        <v>1</v>
+      </c>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0</v>
+      </c>
+      <c r="X38" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="AH38" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX38" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>33</v>
       </c>
@@ -3020,8 +6238,96 @@
         <v>4.5</v>
       </c>
       <c r="S39" s="4"/>
+      <c r="T39" s="12">
+        <v>1</v>
+      </c>
+      <c r="U39" s="12">
+        <v>1</v>
+      </c>
+      <c r="V39" s="12">
+        <v>1</v>
+      </c>
+      <c r="W39" s="12">
+        <v>1</v>
+      </c>
+      <c r="X39" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX39" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>34</v>
       </c>
@@ -3075,8 +6381,96 @@
         <v>4</v>
       </c>
       <c r="S40" s="4"/>
+      <c r="T40" s="12">
+        <v>1</v>
+      </c>
+      <c r="U40" s="12">
+        <v>1</v>
+      </c>
+      <c r="V40" s="12">
+        <v>1</v>
+      </c>
+      <c r="W40" s="12">
+        <v>1</v>
+      </c>
+      <c r="X40" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH40" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX40" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>35</v>
       </c>
@@ -3128,8 +6522,92 @@
         <v>4</v>
       </c>
       <c r="S41" s="4"/>
+      <c r="T41" s="12">
+        <v>1</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="13"/>
+      <c r="W41" s="12">
+        <v>0</v>
+      </c>
+      <c r="X41" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX41" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>36</v>
       </c>
@@ -3183,8 +6661,96 @@
         <v>4</v>
       </c>
       <c r="S42" s="4"/>
+      <c r="T42" s="12">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12">
+        <v>1</v>
+      </c>
+      <c r="V42" s="12">
+        <v>1</v>
+      </c>
+      <c r="W42" s="12">
+        <v>1</v>
+      </c>
+      <c r="X42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH42" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX42" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>37</v>
       </c>
@@ -3238,8 +6804,96 @@
         <v>4</v>
       </c>
       <c r="S43" s="4"/>
+      <c r="T43" s="12">
+        <v>1</v>
+      </c>
+      <c r="U43" s="12">
+        <v>1</v>
+      </c>
+      <c r="V43" s="12">
+        <v>1</v>
+      </c>
+      <c r="W43" s="12">
+        <v>1</v>
+      </c>
+      <c r="X43" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH43" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX43" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>38</v>
       </c>
@@ -3293,8 +6947,96 @@
         <v>4</v>
       </c>
       <c r="S44" s="4"/>
+      <c r="T44" s="12">
+        <v>1</v>
+      </c>
+      <c r="U44" s="12">
+        <v>1</v>
+      </c>
+      <c r="V44" s="12">
+        <v>1</v>
+      </c>
+      <c r="W44" s="12">
+        <v>1</v>
+      </c>
+      <c r="X44" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH44" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX44" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>39</v>
       </c>
@@ -3348,8 +7090,96 @@
         <v>5</v>
       </c>
       <c r="S45" s="4"/>
+      <c r="T45" s="12">
+        <v>1</v>
+      </c>
+      <c r="U45" s="12">
+        <v>1</v>
+      </c>
+      <c r="V45" s="12">
+        <v>1</v>
+      </c>
+      <c r="W45" s="12">
+        <v>1</v>
+      </c>
+      <c r="X45" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH45" s="12">
+        <v>5</v>
+      </c>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX45" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>40</v>
       </c>
@@ -3403,8 +7233,96 @@
         <v>3</v>
       </c>
       <c r="S46" s="4"/>
+      <c r="T46" s="12">
+        <v>1</v>
+      </c>
+      <c r="U46" s="12">
+        <v>1</v>
+      </c>
+      <c r="V46" s="12">
+        <v>1</v>
+      </c>
+      <c r="W46" s="12">
+        <v>1</v>
+      </c>
+      <c r="X46" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH46" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX46" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>41</v>
       </c>
@@ -3458,8 +7376,96 @@
         <v>3.5</v>
       </c>
       <c r="S47" s="4"/>
+      <c r="T47" s="12">
+        <v>1</v>
+      </c>
+      <c r="U47" s="12">
+        <v>1</v>
+      </c>
+      <c r="V47" s="12">
+        <v>1</v>
+      </c>
+      <c r="W47" s="12">
+        <v>1</v>
+      </c>
+      <c r="X47" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH47" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX47" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>42</v>
       </c>
@@ -3513,8 +7519,96 @@
         <v>4</v>
       </c>
       <c r="S48" s="4"/>
+      <c r="T48" s="12">
+        <v>1</v>
+      </c>
+      <c r="U48" s="12">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12">
+        <v>1</v>
+      </c>
+      <c r="W48" s="12">
+        <v>1</v>
+      </c>
+      <c r="X48" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH48" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX48" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>43</v>
       </c>
@@ -3565,11 +7659,99 @@
         <v>6.5</v>
       </c>
       <c r="R49" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S49" s="4"/>
+      <c r="T49" s="12">
+        <v>1</v>
+      </c>
+      <c r="U49" s="12">
+        <v>1</v>
+      </c>
+      <c r="V49" s="12">
+        <v>1</v>
+      </c>
+      <c r="W49" s="12">
+        <v>0</v>
+      </c>
+      <c r="X49" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AH49" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX49" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>44</v>
       </c>
@@ -3623,8 +7805,96 @@
         <v>4</v>
       </c>
       <c r="S50" s="4"/>
+      <c r="T50" s="12">
+        <v>1</v>
+      </c>
+      <c r="U50" s="12">
+        <v>1</v>
+      </c>
+      <c r="V50" s="12">
+        <v>1</v>
+      </c>
+      <c r="W50" s="12">
+        <v>1</v>
+      </c>
+      <c r="X50" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH50" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV50" s="4"/>
+      <c r="AW50" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX50" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>45</v>
       </c>
@@ -3678,8 +7948,96 @@
         <v>4</v>
       </c>
       <c r="S51" s="4"/>
+      <c r="T51" s="12">
+        <v>1</v>
+      </c>
+      <c r="U51" s="12">
+        <v>1</v>
+      </c>
+      <c r="V51" s="12">
+        <v>1</v>
+      </c>
+      <c r="W51" s="12">
+        <v>1</v>
+      </c>
+      <c r="X51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH51" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX51" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>46</v>
       </c>
@@ -3733,8 +8091,96 @@
         <v>3</v>
       </c>
       <c r="S52" s="4"/>
+      <c r="T52" s="12">
+        <v>1</v>
+      </c>
+      <c r="U52" s="12">
+        <v>1</v>
+      </c>
+      <c r="V52" s="12">
+        <v>1</v>
+      </c>
+      <c r="W52" s="12">
+        <v>1</v>
+      </c>
+      <c r="X52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH52" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX52" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>47</v>
       </c>
@@ -3788,8 +8234,96 @@
         <v>4</v>
       </c>
       <c r="S53" s="4"/>
+      <c r="T53" s="12">
+        <v>1</v>
+      </c>
+      <c r="U53" s="12">
+        <v>1</v>
+      </c>
+      <c r="V53" s="12">
+        <v>1</v>
+      </c>
+      <c r="W53" s="12">
+        <v>1</v>
+      </c>
+      <c r="X53" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH53" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX53" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY53" s="4"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>48</v>
       </c>
@@ -3843,8 +8377,96 @@
         <v>4</v>
       </c>
       <c r="S54" s="4"/>
+      <c r="T54" s="12">
+        <v>1</v>
+      </c>
+      <c r="U54" s="12">
+        <v>1</v>
+      </c>
+      <c r="V54" s="12">
+        <v>1</v>
+      </c>
+      <c r="W54" s="12">
+        <v>1</v>
+      </c>
+      <c r="X54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH54" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX54" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY54" s="4"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>49</v>
       </c>
@@ -3895,11 +8517,99 @@
         <v>5.5</v>
       </c>
       <c r="R55" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S55" s="4"/>
+      <c r="T55" s="12">
+        <v>1</v>
+      </c>
+      <c r="U55" s="12">
+        <v>1</v>
+      </c>
+      <c r="V55" s="12">
+        <v>1</v>
+      </c>
+      <c r="W55" s="12">
+        <v>1</v>
+      </c>
+      <c r="X55" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH55" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU55" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX55" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY55" s="4"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>50</v>
       </c>
@@ -3953,8 +8663,96 @@
         <v>5</v>
       </c>
       <c r="S56" s="4"/>
+      <c r="T56" s="12">
+        <v>1</v>
+      </c>
+      <c r="U56" s="12">
+        <v>1</v>
+      </c>
+      <c r="V56" s="12">
+        <v>1</v>
+      </c>
+      <c r="W56" s="12">
+        <v>1</v>
+      </c>
+      <c r="X56" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX56" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY56" s="4"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>51</v>
       </c>
@@ -4008,8 +8806,96 @@
         <v>4.5</v>
       </c>
       <c r="S57" s="4"/>
+      <c r="T57" s="12">
+        <v>1</v>
+      </c>
+      <c r="U57" s="12">
+        <v>1</v>
+      </c>
+      <c r="V57" s="12">
+        <v>1</v>
+      </c>
+      <c r="W57" s="12">
+        <v>1</v>
+      </c>
+      <c r="X57" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="12">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX57" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY57" s="4"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>52</v>
       </c>
@@ -4026,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="12">
         <v>1</v>
@@ -4035,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="12">
         <v>0</v>
@@ -4063,8 +8949,96 @@
         <v>3</v>
       </c>
       <c r="S58" s="4"/>
+      <c r="T58" s="12">
+        <v>1</v>
+      </c>
+      <c r="U58" s="12">
+        <v>1</v>
+      </c>
+      <c r="V58" s="12">
+        <v>1</v>
+      </c>
+      <c r="W58" s="12">
+        <v>1</v>
+      </c>
+      <c r="X58" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="AH58" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX58" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY58" s="4"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>53</v>
       </c>
@@ -4118,8 +9092,96 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="4"/>
+      <c r="T59" s="12">
+        <v>1</v>
+      </c>
+      <c r="U59" s="12">
+        <v>1</v>
+      </c>
+      <c r="V59" s="12">
+        <v>1</v>
+      </c>
+      <c r="W59" s="12">
+        <v>1</v>
+      </c>
+      <c r="X59" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH59" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX59" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY59" s="4"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>54</v>
       </c>
@@ -4173,8 +9235,96 @@
         <v>4</v>
       </c>
       <c r="S60" s="4"/>
+      <c r="T60" s="12">
+        <v>1</v>
+      </c>
+      <c r="U60" s="12">
+        <v>1</v>
+      </c>
+      <c r="V60" s="12">
+        <v>1</v>
+      </c>
+      <c r="W60" s="12">
+        <v>1</v>
+      </c>
+      <c r="X60" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="AH60" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX60" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY60" s="4"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>55</v>
       </c>
@@ -4228,8 +9378,96 @@
         <v>4.5</v>
       </c>
       <c r="S61" s="4"/>
+      <c r="T61" s="12">
+        <v>1</v>
+      </c>
+      <c r="U61" s="12">
+        <v>1</v>
+      </c>
+      <c r="V61" s="12">
+        <v>1</v>
+      </c>
+      <c r="W61" s="12">
+        <v>1</v>
+      </c>
+      <c r="X61" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH61" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX61" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY61" s="4"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>56</v>
       </c>
@@ -4281,8 +9519,92 @@
         <v>4</v>
       </c>
       <c r="S62" s="4"/>
+      <c r="T62" s="12">
+        <v>1</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0</v>
+      </c>
+      <c r="V62" s="12">
+        <v>0</v>
+      </c>
+      <c r="W62" s="13"/>
+      <c r="X62" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH62" s="12">
+        <v>6</v>
+      </c>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX62" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY62" s="4"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>57</v>
       </c>
@@ -4336,8 +9658,96 @@
         <v>4</v>
       </c>
       <c r="S63" s="4"/>
+      <c r="T63" s="12">
+        <v>1</v>
+      </c>
+      <c r="U63" s="12">
+        <v>0</v>
+      </c>
+      <c r="V63" s="12">
+        <v>0</v>
+      </c>
+      <c r="W63" s="12">
+        <v>0</v>
+      </c>
+      <c r="X63" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH63" s="12">
+        <v>4</v>
+      </c>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AQ63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX63" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY63" s="4"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>58</v>
       </c>
@@ -4391,359 +9801,1026 @@
         <v>3</v>
       </c>
       <c r="S64" s="4"/>
+      <c r="T64" s="12">
+        <v>1</v>
+      </c>
+      <c r="U64" s="12">
+        <v>1</v>
+      </c>
+      <c r="V64" s="12">
+        <v>1</v>
+      </c>
+      <c r="W64" s="12">
+        <v>1</v>
+      </c>
+      <c r="X64" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="12">
+        <v>6</v>
+      </c>
+      <c r="AH64" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AP64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AR64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AS64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AU64" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="12">
+        <v>8</v>
+      </c>
+      <c r="AX64" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
       <c r="S65" s="4"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="30"/>
+      <c r="AH65" s="30"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="30"/>
+      <c r="AK65" s="30"/>
+      <c r="AL65" s="30"/>
+      <c r="AM65" s="30"/>
+      <c r="AN65" s="30"/>
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="30"/>
+      <c r="AQ65" s="30"/>
+      <c r="AR65" s="30"/>
+      <c r="AS65" s="30"/>
+      <c r="AT65" s="30"/>
+      <c r="AU65" s="30"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="12"/>
+      <c r="AX65" s="30"/>
+      <c r="AY65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
       <c r="S66" s="4"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="30"/>
+      <c r="AH66" s="30"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="30"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="30"/>
+      <c r="AM66" s="30"/>
+      <c r="AN66" s="30"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="30"/>
+      <c r="AQ66" s="30"/>
+      <c r="AR66" s="30"/>
+      <c r="AS66" s="30"/>
+      <c r="AT66" s="30"/>
+      <c r="AU66" s="30"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="12"/>
+      <c r="AX66" s="30"/>
+      <c r="AY66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
+      <c r="AE67" s="30"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="30"/>
+      <c r="AH67" s="30"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="30"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="30"/>
+      <c r="AM67" s="30"/>
+      <c r="AN67" s="30"/>
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="30"/>
+      <c r="AQ67" s="30"/>
+      <c r="AR67" s="30"/>
+      <c r="AS67" s="30"/>
+      <c r="AT67" s="30"/>
+      <c r="AU67" s="30"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="30"/>
+      <c r="AY67" s="4"/>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="30"/>
+      <c r="AH68" s="30"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="30"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="30"/>
+      <c r="AM68" s="30"/>
+      <c r="AN68" s="30"/>
+      <c r="AO68" s="30"/>
+      <c r="AP68" s="30"/>
+      <c r="AQ68" s="30"/>
+      <c r="AR68" s="30"/>
+      <c r="AS68" s="30"/>
+      <c r="AT68" s="30"/>
+      <c r="AU68" s="30"/>
+      <c r="AV68" s="4"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="30"/>
+      <c r="AY68" s="4"/>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
+      <c r="AS69" s="4"/>
+      <c r="AT69" s="4"/>
+      <c r="AU69" s="4"/>
+      <c r="AV69" s="4"/>
+      <c r="AW69" s="4"/>
+      <c r="AX69" s="4"/>
+      <c r="AY69" s="4"/>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="4"/>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="4">
-        <f t="shared" ref="D67:R67" si="0">COUNTA(D7:D66)</f>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="4">
+        <f t="shared" ref="D71:R71" si="0">COUNTA(D7:D70)</f>
         <v>58</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F71" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G71" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="O67" s="4">
+      <c r="O71" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P67" s="4">
-        <f>COUNTA(P7:P66)</f>
+      <c r="P71" s="4">
+        <f>COUNTA(P7:P70)</f>
         <v>6</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q71" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="R67" s="4">
+      <c r="R71" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="S67" s="4">
-        <f>COUNTA(S7:S66)</f>
+      <c r="S71" s="4">
+        <f>COUNTA(S7:S70)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="6">
-        <f t="shared" ref="D68:R68" si="1">COUNTIF(D7:D66,"&gt;="&amp;0.65*D4)</f>
+      <c r="T71" s="4">
+        <f t="shared" ref="T71:AH71" si="1">COUNTA(T7:T70)</f>
         <v>58</v>
       </c>
-      <c r="E68" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="F68" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="G68" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="H68" s="6">
+      <c r="U71" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="I68" s="6">
+      <c r="V71" s="4">
         <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="W71" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="X71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="Y71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="Z71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AA71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AB71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AC71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AD71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AE71" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AF71" s="4">
+        <f>COUNTA(AF7:AF70)</f>
+        <v>6</v>
+      </c>
+      <c r="AG71" s="4">
+        <f t="shared" ref="AG71:AI71" si="2">COUNTA(AG7:AG70)</f>
+        <v>52</v>
+      </c>
+      <c r="AH71" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AI71" s="4">
+        <f>COUNTA(AI7:AI70)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ71" s="4">
+        <f t="shared" ref="AJ71:AX71" si="3">COUNTA(AJ7:AJ70)</f>
+        <v>58</v>
+      </c>
+      <c r="AK71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AL71" s="4">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="AM71" s="4">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="AN71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AO71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AP71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AQ71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AR71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AS71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AT71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AU71" s="4">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="AV71" s="4">
+        <f>COUNTA(AV7:AV70)</f>
+        <v>6</v>
+      </c>
+      <c r="AW71" s="4">
+        <f t="shared" ref="AW71:AY71" si="4">COUNTA(AW7:AW70)</f>
+        <v>52</v>
+      </c>
+      <c r="AX71" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AY71" s="4">
+        <f>COUNTA(AY7:AY70)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="6">
+        <f t="shared" ref="D72:R72" si="5">COUNTIF(D7:D70,"&gt;="&amp;0.65*D4)</f>
+        <v>58</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="J68" s="6">
-        <f t="shared" si="1"/>
+      <c r="G72" s="6">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="K68" s="6">
-        <f t="shared" si="1"/>
+      <c r="K72" s="6">
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="L68" s="6">
-        <f t="shared" si="1"/>
+      <c r="L72" s="6">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="M68" s="6">
-        <f t="shared" si="1"/>
+      <c r="M72" s="6">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="N68" s="6">
-        <f t="shared" si="1"/>
+      <c r="N72" s="6">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="O68" s="6">
-        <f t="shared" si="1"/>
+      <c r="O72" s="6">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="P68" s="6">
-        <f>COUNTIF(P7:P66,"&gt;="&amp;0.65*P4)</f>
+      <c r="P72" s="6">
+        <f>COUNTIF(P7:P70,"&gt;="&amp;0.65*P4)</f>
         <v>4</v>
       </c>
-      <c r="Q68" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q72" s="6">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="R68" s="6">
-        <f t="shared" si="1"/>
+      <c r="R72" s="6">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="S72" s="6">
+        <f>COUNTIF(S7:S70,"&gt;="&amp;0.65*S4)</f>
+        <v>7</v>
+      </c>
+      <c r="T72" s="6">
+        <f t="shared" ref="T72:AH72" si="6">COUNTIF(T7:T70,"&gt;="&amp;0.65*T4)</f>
+        <v>58</v>
+      </c>
+      <c r="U72" s="6">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="V72" s="6">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="W72" s="6">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="X72" s="6">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="Y72" s="6">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="Z72" s="6">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="AA72" s="6">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="AB72" s="6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AC72" s="6">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AD72" s="6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AE72" s="6">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AF72" s="6">
+        <f>COUNTIF(AF7:AF70,"&gt;="&amp;0.65*AF4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG72" s="6">
+        <f t="shared" ref="AG72:AI72" si="7">COUNTIF(AG7:AG70,"&gt;="&amp;0.65*AG4)</f>
         <v>42</v>
       </c>
-      <c r="S68" s="6">
-        <f>COUNTIF(S7:S66,"&gt;="&amp;0.65*S4)</f>
+      <c r="AH72" s="6">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="AI72" s="6">
+        <f>COUNTIF(AI7:AI70,"&gt;="&amp;0.65*AI4)</f>
         <v>7</v>
       </c>
+      <c r="AJ72" s="6">
+        <f t="shared" ref="AJ72:AX72" si="8">COUNTIF(AJ7:AJ70,"&gt;="&amp;0.65*AJ4)</f>
+        <v>58</v>
+      </c>
+      <c r="AK72" s="6">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="AL72" s="6">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="AM72" s="6">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="AN72" s="6">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="AO72" s="6">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="AP72" s="6">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="AQ72" s="6">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="AR72" s="6">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AS72" s="6">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AT72" s="6">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AU72" s="6">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AV72" s="6">
+        <f>COUNTIF(AV7:AV70,"&gt;="&amp;0.65*AV4)</f>
+        <v>4</v>
+      </c>
+      <c r="AW72" s="6">
+        <f t="shared" ref="AW72:AY72" si="9">COUNTIF(AW7:AW70,"&gt;="&amp;0.65*AW4)</f>
+        <v>52</v>
+      </c>
+      <c r="AX72" s="6">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AY72" s="6">
+        <f>COUNTIF(AY7:AY70,"&gt;="&amp;0.65*AY4)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="4">
-        <f>IF(D67&gt;0,ROUND(D68/D67*100,2),"-")</f>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="4">
+        <f>IF(D71&gt;0,ROUND(D72/D71*100,2),"-")</f>
         <v>100</v>
       </c>
-      <c r="E69" s="4">
-        <f t="shared" ref="E69:S69" si="2">IF(E67&gt;0,ROUND(E68/E67*100,2),"-")</f>
+      <c r="E73" s="4">
+        <f t="shared" ref="E73:S73" si="10">IF(E71&gt;0,ROUND(E72/E71*100,2),"-")</f>
         <v>82.76</v>
       </c>
-      <c r="F69" s="4">
-        <f t="shared" si="2"/>
+      <c r="F73" s="4">
+        <f t="shared" si="10"/>
+        <v>80.7</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="10"/>
+        <v>84.21</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="10"/>
+        <v>77.59</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="10"/>
+        <v>74.14</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="10"/>
+        <v>84.48</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="10"/>
+        <v>53.45</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="10"/>
+        <v>56.9</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="10"/>
+        <v>46.55</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="10"/>
+        <v>37.93</v>
+      </c>
+      <c r="P73" s="4">
+        <f t="shared" si="10"/>
+        <v>66.67</v>
+      </c>
+      <c r="Q73" s="4">
+        <f t="shared" si="10"/>
+        <v>65.38</v>
+      </c>
+      <c r="R73" s="4">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="S73" s="4">
+        <f t="shared" si="10"/>
+        <v>87.5</v>
+      </c>
+      <c r="T73" s="4">
+        <f>IF(T71&gt;0,ROUND(T72/T71*100,2),"-")</f>
+        <v>100</v>
+      </c>
+      <c r="U73" s="4">
+        <f t="shared" ref="U73:AI73" si="11">IF(U71&gt;0,ROUND(U72/U71*100,2),"-")</f>
+        <v>82.76</v>
+      </c>
+      <c r="V73" s="4">
+        <f t="shared" si="11"/>
         <v>82.46</v>
       </c>
-      <c r="G69" s="4">
-        <f t="shared" si="2"/>
+      <c r="W73" s="4">
+        <f t="shared" si="11"/>
+        <v>82.46</v>
+      </c>
+      <c r="X73" s="4">
+        <f t="shared" si="11"/>
+        <v>98.28</v>
+      </c>
+      <c r="Y73" s="4">
+        <f t="shared" si="11"/>
+        <v>77.59</v>
+      </c>
+      <c r="Z73" s="4">
+        <f t="shared" si="11"/>
+        <v>74.14</v>
+      </c>
+      <c r="AA73" s="4">
+        <f t="shared" si="11"/>
+        <v>84.48</v>
+      </c>
+      <c r="AB73" s="4">
+        <f t="shared" si="11"/>
+        <v>53.45</v>
+      </c>
+      <c r="AC73" s="4">
+        <f t="shared" si="11"/>
+        <v>60.34</v>
+      </c>
+      <c r="AD73" s="4">
+        <f t="shared" si="11"/>
+        <v>53.45</v>
+      </c>
+      <c r="AE73" s="4">
+        <f t="shared" si="11"/>
+        <v>37.93</v>
+      </c>
+      <c r="AF73" s="4">
+        <f t="shared" si="11"/>
+        <v>66.67</v>
+      </c>
+      <c r="AG73" s="4">
+        <f t="shared" si="11"/>
+        <v>80.77</v>
+      </c>
+      <c r="AH73" s="4">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="AI73" s="4">
+        <f t="shared" si="11"/>
+        <v>87.5</v>
+      </c>
+      <c r="AJ73" s="4">
+        <f>IF(AJ71&gt;0,ROUND(AJ72/AJ71*100,2),"-")</f>
+        <v>100</v>
+      </c>
+      <c r="AK73" s="4">
+        <f t="shared" ref="AK73:AY73" si="12">IF(AK71&gt;0,ROUND(AK72/AK71*100,2),"-")</f>
+        <v>82.76</v>
+      </c>
+      <c r="AL73" s="4">
+        <f t="shared" si="12"/>
+        <v>80.7</v>
+      </c>
+      <c r="AM73" s="4">
+        <f t="shared" si="12"/>
         <v>84.21</v>
       </c>
-      <c r="H69" s="4">
-        <f t="shared" si="2"/>
+      <c r="AN73" s="4">
+        <f t="shared" si="12"/>
+        <v>98.28</v>
+      </c>
+      <c r="AO73" s="4">
+        <f t="shared" si="12"/>
+        <v>79.31</v>
+      </c>
+      <c r="AP73" s="4">
+        <f t="shared" si="12"/>
+        <v>72.41</v>
+      </c>
+      <c r="AQ73" s="4">
+        <f t="shared" si="12"/>
+        <v>84.48</v>
+      </c>
+      <c r="AR73" s="4">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="I69" s="4">
-        <f t="shared" si="2"/>
-        <v>79.31</v>
-      </c>
-      <c r="J69" s="4">
-        <f t="shared" si="2"/>
-        <v>74.14</v>
-      </c>
-      <c r="K69" s="4">
-        <f t="shared" si="2"/>
-        <v>84.48</v>
-      </c>
-      <c r="L69" s="4">
-        <f t="shared" si="2"/>
-        <v>53.45</v>
-      </c>
-      <c r="M69" s="4">
-        <f t="shared" si="2"/>
-        <v>56.9</v>
-      </c>
-      <c r="N69" s="4">
-        <f t="shared" si="2"/>
-        <v>46.55</v>
-      </c>
-      <c r="O69" s="4">
-        <f t="shared" si="2"/>
-        <v>37.93</v>
-      </c>
-      <c r="P69" s="4">
-        <f t="shared" si="2"/>
+      <c r="AS73" s="4">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AT73" s="4">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AU73" s="4">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AV73" s="4">
+        <f t="shared" si="12"/>
         <v>66.67</v>
       </c>
-      <c r="Q69" s="4">
-        <f t="shared" si="2"/>
-        <v>65.38</v>
-      </c>
-      <c r="R69" s="4">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="2"/>
+      <c r="AW73" s="4">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AX73" s="4">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AY73" s="4">
+        <f t="shared" si="12"/>
         <v>87.5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="19">
-        <f>IFERROR(ROUND(SUMPRODUCT(D69:S69,D4:S4)/SUM(D4:S4), 2),"-")</f>
-        <v>73.58</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="19">
-        <f>IF(D70&gt;=85,3,IF(D70&gt;=75,2,IF(D70&gt;=65,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19">
-        <f>IFERROR(ROUND((SUMPRODUCT(D69:S69,D4:S4)/SUM(D4:S4))/1,2),"-")</f>
-        <v>73.58</v>
-      </c>
-      <c r="D74" s="18"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="18">
+        <f>IFERROR(ROUND(SUMPRODUCT(D73:S73,D4:S4)/SUM(D4:S4), 2),"-")</f>
+        <v>73.23</v>
+      </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
-      <c r="J74" s="19">
-        <f>IF(C74&gt;=85,3,IF(C74&gt;=75,2,IF(C74&gt;=65,1,0)))</f>
-        <v>1</v>
-      </c>
+      <c r="J74" s="18"/>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -4752,32 +10829,354 @@
       <c r="P74" s="18"/>
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18">
+        <f>IFERROR(ROUND(SUMPRODUCT(T73:AI73,T4:AI4)/SUM(T4:AI4), 2),"-")</f>
+        <v>77.48</v>
+      </c>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="18"/>
+      <c r="AB74" s="18"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18"/>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="18">
+        <f>IFERROR(ROUND(SUMPRODUCT(AJ73:AY73,AJ4:AY4)/SUM(AJ4:AY4), 2),"-")</f>
+        <v>88.24</v>
+      </c>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="18"/>
+      <c r="AM74" s="18"/>
+      <c r="AN74" s="18"/>
+      <c r="AO74" s="18"/>
+      <c r="AP74" s="18"/>
+      <c r="AQ74" s="18"/>
+      <c r="AR74" s="18"/>
+      <c r="AS74" s="18"/>
+      <c r="AT74" s="18"/>
+      <c r="AU74" s="18"/>
+      <c r="AV74" s="18"/>
+      <c r="AW74" s="18"/>
+      <c r="AX74" s="18"/>
+      <c r="AY74" s="18"/>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="18">
+        <f>IF(D74&gt;=85,3,IF(D74&gt;=75,2,IF(D74&gt;=65,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18">
+        <f>IF(T74&gt;=85,3,IF(T74&gt;=75,2,IF(T74&gt;=65,1,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="18"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="18"/>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="18"/>
+      <c r="AH75" s="18"/>
+      <c r="AI75" s="18"/>
+      <c r="AJ75" s="18">
+        <f>IF(AJ74&gt;=85,3,IF(AJ74&gt;=75,2,IF(AJ74&gt;=65,1,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="AK75" s="18"/>
+      <c r="AL75" s="18"/>
+      <c r="AM75" s="18"/>
+      <c r="AN75" s="18"/>
+      <c r="AO75" s="18"/>
+      <c r="AP75" s="18"/>
+      <c r="AQ75" s="18"/>
+      <c r="AR75" s="18"/>
+      <c r="AS75" s="18"/>
+      <c r="AT75" s="18"/>
+      <c r="AU75" s="18"/>
+      <c r="AV75" s="18"/>
+      <c r="AW75" s="18"/>
+      <c r="AX75" s="18"/>
+      <c r="AY75" s="18"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A77" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="18">
+        <f>IFERROR(ROUND((SUMPRODUCT(D73:S73,D4:S4)/SUM(D4:S4))/1,2),"-")</f>
+        <v>73.23</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="18">
+        <f>IF(C78&gt;=85,3,IF(C78&gt;=75,2,IF(C78&gt;=65,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="31">
+        <f>T74</f>
+        <v>77.48</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="18">
+        <f>IF(C79&gt;=85,3,IF(C79&gt;=75,2,IF(C79&gt;=65,1,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="31">
+        <f>AJ74</f>
+        <v>88.24</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="18">
+        <f>IF(C80&gt;=85,3,IF(C80&gt;=75,2,IF(C80&gt;=65,1,0)))</f>
+        <v>3</v>
+      </c>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="31">
+        <v>0</v>
+      </c>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="18">
+        <f>IF(C81&gt;=85,3,IF(C81&gt;=75,2,IF(C81&gt;=65,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="31">
+        <v>0</v>
+      </c>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="18">
+        <f>IF(C82&gt;=85,3,IF(C82&gt;=75,2,IF(C82&gt;=65,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="31">
+        <v>0</v>
+      </c>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="18">
+        <f>IF(C83&gt;=85,3,IF(C83&gt;=75,2,IF(C83&gt;=65,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="49">
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="J83:R83"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="J81:R81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="J82:R82"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="J79:R79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="J80:R80"/>
+    <mergeCell ref="T75:AI75"/>
+    <mergeCell ref="AJ1:AY1"/>
+    <mergeCell ref="AJ2:AY2"/>
+    <mergeCell ref="AJ3:AY3"/>
+    <mergeCell ref="AJ5:AY5"/>
+    <mergeCell ref="AJ74:AY74"/>
+    <mergeCell ref="AJ75:AY75"/>
+    <mergeCell ref="T1:AI1"/>
+    <mergeCell ref="T2:AI2"/>
+    <mergeCell ref="T3:AI3"/>
+    <mergeCell ref="T5:AI5"/>
+    <mergeCell ref="T74:AI74"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D75:S75"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="D1:S1"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="C73:I73"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C77:I77"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="D2:S2"/>
-    <mergeCell ref="J73:R73"/>
+    <mergeCell ref="J77:R77"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D70:S70"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D74:S74"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D5:S5"/>
-    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D71:S71"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="J74:R74"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A78:B78"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>